--- a/data/pca/factorExposure/factorExposure_2012-08-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-24.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002565483304440425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001872768623287379</v>
+      </c>
+      <c r="C2">
+        <v>0.0289458257804553</v>
+      </c>
+      <c r="D2">
+        <v>0.004226096526564378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.000590085767971538</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.00667068826999115</v>
+      </c>
+      <c r="C4">
+        <v>0.08376296270612456</v>
+      </c>
+      <c r="D4">
+        <v>0.0671356864546615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.006179422960771506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01518040483593898</v>
+      </c>
+      <c r="C6">
+        <v>0.1184478287388733</v>
+      </c>
+      <c r="D6">
+        <v>0.02036155057125505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001131987577055909</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004988151666667303</v>
+      </c>
+      <c r="C7">
+        <v>0.05906393652133729</v>
+      </c>
+      <c r="D7">
+        <v>0.03124939085112943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0008362914318554935</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.004944413162556367</v>
+      </c>
+      <c r="C8">
+        <v>0.0359211051390916</v>
+      </c>
+      <c r="D8">
+        <v>0.03891064787755648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0003107739992128247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005620554334802948</v>
+      </c>
+      <c r="C9">
+        <v>0.07203609886868888</v>
+      </c>
+      <c r="D9">
+        <v>0.07335100904203265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0007479614925328837</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.00203324490383062</v>
+      </c>
+      <c r="C10">
+        <v>0.05189842882528865</v>
+      </c>
+      <c r="D10">
+        <v>-0.1850482051746189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0005634189829896715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005975043981441997</v>
+      </c>
+      <c r="C11">
+        <v>0.08087918771387391</v>
+      </c>
+      <c r="D11">
+        <v>0.06610249115517605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0002534840583419945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004498704145886036</v>
+      </c>
+      <c r="C12">
+        <v>0.06511777456891191</v>
+      </c>
+      <c r="D12">
+        <v>0.05017996470735903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002260491457064953</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008701276951023369</v>
+      </c>
+      <c r="C13">
+        <v>0.07109859933533211</v>
+      </c>
+      <c r="D13">
+        <v>0.05711507416469495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001511646581241083</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007947273127644666</v>
+      </c>
+      <c r="C14">
+        <v>0.04337878808589122</v>
+      </c>
+      <c r="D14">
+        <v>0.01056450773537279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001763546692911149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005950598642741535</v>
+      </c>
+      <c r="C15">
+        <v>0.0406469062673539</v>
+      </c>
+      <c r="D15">
+        <v>0.02838095318403114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0005460478356337877</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005434920429370741</v>
+      </c>
+      <c r="C16">
+        <v>0.06489357762844093</v>
+      </c>
+      <c r="D16">
+        <v>0.05789389803830965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.00301716541030201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008843142478040121</v>
+      </c>
+      <c r="C20">
+        <v>0.0641780711855708</v>
+      </c>
+      <c r="D20">
+        <v>0.0513233963724222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005596622401365283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009310017708906906</v>
+      </c>
+      <c r="C21">
+        <v>0.02013328573794914</v>
+      </c>
+      <c r="D21">
+        <v>0.0390757513038456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02045245940632404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.008141669451941289</v>
+      </c>
+      <c r="C22">
+        <v>0.0866387905295093</v>
+      </c>
+      <c r="D22">
+        <v>0.1276195847882644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02011552674969168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007849179461262422</v>
+      </c>
+      <c r="C23">
+        <v>0.08704640766523118</v>
+      </c>
+      <c r="D23">
+        <v>0.1287361613299036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.0008590826777805673</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005970248221917213</v>
+      </c>
+      <c r="C24">
+        <v>0.07730301075091431</v>
+      </c>
+      <c r="D24">
+        <v>0.06675604607644559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002428602035976719</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003467105520476437</v>
+      </c>
+      <c r="C25">
+        <v>0.07827778666063831</v>
+      </c>
+      <c r="D25">
+        <v>0.06510989101573057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001123188328712044</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.00355618334469492</v>
+      </c>
+      <c r="C26">
+        <v>0.03948583735110532</v>
+      </c>
+      <c r="D26">
+        <v>0.02156219560266676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006686636624423787</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002270975927172068</v>
+      </c>
+      <c r="C28">
+        <v>0.102545570176788</v>
+      </c>
+      <c r="D28">
+        <v>-0.3249060934827622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.000471867402895423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003208851999716846</v>
+      </c>
+      <c r="C29">
+        <v>0.04743217685978397</v>
+      </c>
+      <c r="D29">
+        <v>0.01063884729251707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002554401981799923</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009223724704559179</v>
+      </c>
+      <c r="C30">
+        <v>0.1408374815936831</v>
+      </c>
+      <c r="D30">
+        <v>0.1078855751133676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.00206960010355189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006209925923694259</v>
+      </c>
+      <c r="C31">
+        <v>0.04391917915195382</v>
+      </c>
+      <c r="D31">
+        <v>0.03162170542867744</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0004779807631369497</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004265887160597278</v>
+      </c>
+      <c r="C32">
+        <v>0.03880919846372281</v>
+      </c>
+      <c r="D32">
+        <v>0.01911062090835465</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0005730790352024998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008849948787184817</v>
+      </c>
+      <c r="C33">
+        <v>0.09043986587939179</v>
+      </c>
+      <c r="D33">
+        <v>0.06246386085919876</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.0006613766665898049</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004591991600604782</v>
+      </c>
+      <c r="C34">
+        <v>0.05826544869756508</v>
+      </c>
+      <c r="D34">
+        <v>0.05834359551130666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002260937777966172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005304959898406535</v>
+      </c>
+      <c r="C35">
+        <v>0.04065801573369541</v>
+      </c>
+      <c r="D35">
+        <v>0.01493915041265348</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004259746038154199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00138678186070819</v>
+      </c>
+      <c r="C36">
+        <v>0.02522732432316197</v>
+      </c>
+      <c r="D36">
+        <v>0.02212680262795831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002787775336357469</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009022649983194735</v>
+      </c>
+      <c r="C38">
+        <v>0.04117436838102407</v>
+      </c>
+      <c r="D38">
+        <v>0.01301972492343103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01097838018487352</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001907091769370115</v>
+      </c>
+      <c r="C39">
+        <v>0.1122866430575392</v>
+      </c>
+      <c r="D39">
+        <v>0.08024842919610503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003802036942127251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002666633655410808</v>
+      </c>
+      <c r="C40">
+        <v>0.09134117825939517</v>
+      </c>
+      <c r="D40">
+        <v>0.01697808998190071</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002621836994132166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007528235355752259</v>
+      </c>
+      <c r="C41">
+        <v>0.04142155234829215</v>
+      </c>
+      <c r="D41">
+        <v>0.04032717308485208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.00162674892294874</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003984102544511472</v>
+      </c>
+      <c r="C43">
+        <v>0.05421369035354766</v>
+      </c>
+      <c r="D43">
+        <v>0.02799232600121591</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.007470165397489864</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.001849233856109887</v>
+      </c>
+      <c r="C44">
+        <v>0.1046847258268473</v>
+      </c>
+      <c r="D44">
+        <v>0.06800652271403632</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.00117958458151688</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001565174570615657</v>
+      </c>
+      <c r="C46">
+        <v>0.03266670944243029</v>
+      </c>
+      <c r="D46">
+        <v>0.03306055868194523</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0001405484688465362</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002801020563100445</v>
+      </c>
+      <c r="C47">
+        <v>0.03527851437505305</v>
+      </c>
+      <c r="D47">
+        <v>0.02171841252100916</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004924544585049246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007606440253991858</v>
+      </c>
+      <c r="C48">
+        <v>0.03309771576763106</v>
+      </c>
+      <c r="D48">
+        <v>0.03118044118915948</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.005285877261807301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01741680000839806</v>
+      </c>
+      <c r="C49">
+        <v>0.1868048212929599</v>
+      </c>
+      <c r="D49">
+        <v>0.008153143232363705</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-8.772860696590328e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004060131618531134</v>
+      </c>
+      <c r="C50">
+        <v>0.04262897988255632</v>
+      </c>
+      <c r="D50">
+        <v>0.03935253095640265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>1.067826067257027e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003847900307601459</v>
+      </c>
+      <c r="C51">
+        <v>0.02653297274843719</v>
+      </c>
+      <c r="D51">
+        <v>0.02447611337053128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008971156904135408</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02159983757441323</v>
+      </c>
+      <c r="C53">
+        <v>0.1718345031484904</v>
+      </c>
+      <c r="D53">
+        <v>0.01978492698919819</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003612602156895631</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009475344150191111</v>
+      </c>
+      <c r="C54">
+        <v>0.05677334786137912</v>
+      </c>
+      <c r="D54">
+        <v>0.04139033056210588</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.002191911727549249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01010817855267024</v>
+      </c>
+      <c r="C55">
+        <v>0.1085648903275361</v>
+      </c>
+      <c r="D55">
+        <v>0.03565975359784934</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.009790408150201936</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02154889150115715</v>
+      </c>
+      <c r="C56">
+        <v>0.1745264820523098</v>
+      </c>
+      <c r="D56">
+        <v>0.01461573281770877</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.001262608609303469</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01648890424941924</v>
+      </c>
+      <c r="C58">
+        <v>0.1070924741513458</v>
+      </c>
+      <c r="D58">
+        <v>0.06647537022336474</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002629904753997101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009333587189444137</v>
+      </c>
+      <c r="C59">
+        <v>0.1677596216277671</v>
+      </c>
+      <c r="D59">
+        <v>-0.3459797150097629</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.009091787717034691</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02634379443908524</v>
+      </c>
+      <c r="C60">
+        <v>0.2236959331410922</v>
+      </c>
+      <c r="D60">
+        <v>0.01628798609519483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.009914380200766067</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002060521220850789</v>
+      </c>
+      <c r="C61">
+        <v>0.09395903705580952</v>
+      </c>
+      <c r="D61">
+        <v>0.05890095112160811</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1498992992123581</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1526875953021395</v>
+      </c>
+      <c r="C62">
+        <v>0.1016933650069572</v>
+      </c>
+      <c r="D62">
+        <v>0.01647222708399864</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.00145153145819864</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006589752447468553</v>
+      </c>
+      <c r="C63">
+        <v>0.05360058671809603</v>
+      </c>
+      <c r="D63">
+        <v>0.03403086974012964</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01079668090811145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01700218790033397</v>
+      </c>
+      <c r="C64">
+        <v>0.1062618779554073</v>
+      </c>
+      <c r="D64">
+        <v>0.05406672418559563</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.00898189783453872</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01809334068452422</v>
+      </c>
+      <c r="C65">
+        <v>0.120338674235584</v>
+      </c>
+      <c r="D65">
+        <v>0.02639921505810428</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.0006519583048855626</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01305556588162449</v>
+      </c>
+      <c r="C66">
+        <v>0.1604496333953535</v>
+      </c>
+      <c r="D66">
+        <v>0.1127643128235036</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006083629681850294</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01544885852331593</v>
+      </c>
+      <c r="C67">
+        <v>0.07372432715777039</v>
+      </c>
+      <c r="D67">
+        <v>0.02374204552874552</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004708216188155886</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-2.732678156074326e-06</v>
+      </c>
+      <c r="C68">
+        <v>0.08446713642838045</v>
+      </c>
+      <c r="D68">
+        <v>-0.2579177528010534</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0002159609941420439</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006156396906328391</v>
+      </c>
+      <c r="C69">
+        <v>0.05221994172882007</v>
+      </c>
+      <c r="D69">
+        <v>0.03781541858338616</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001404538720891761</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002530551399540585</v>
+      </c>
+      <c r="C70">
+        <v>0.008546065702806733</v>
+      </c>
+      <c r="D70">
+        <v>-0.002379626758968294</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0003816207132899619</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004593472313891881</v>
+      </c>
+      <c r="C71">
+        <v>0.08890759923506035</v>
+      </c>
+      <c r="D71">
+        <v>-0.3011886212706208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005571576799426611</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01832903200548919</v>
+      </c>
+      <c r="C72">
+        <v>0.1587817970957584</v>
+      </c>
+      <c r="D72">
+        <v>0.006636013477353542</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01046160186899141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03121396331324703</v>
+      </c>
+      <c r="C73">
+        <v>0.2819510705138225</v>
+      </c>
+      <c r="D73">
+        <v>0.05569791684023952</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005077137816023636</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002080812795280936</v>
+      </c>
+      <c r="C74">
+        <v>0.1030963332036798</v>
+      </c>
+      <c r="D74">
+        <v>0.03352172557055607</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0002348364322813197</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01163217070970284</v>
+      </c>
+      <c r="C75">
+        <v>0.1206866910615668</v>
+      </c>
+      <c r="D75">
+        <v>0.0269008609087287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01149439106984394</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02197779371477014</v>
+      </c>
+      <c r="C76">
+        <v>0.1460768169218713</v>
+      </c>
+      <c r="D76">
+        <v>0.0571838902295664</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.007261782384604437</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02134558428618896</v>
+      </c>
+      <c r="C77">
+        <v>0.1101782859739804</v>
+      </c>
+      <c r="D77">
+        <v>0.0468270023432501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.00482036778220918</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01432615614289</v>
+      </c>
+      <c r="C78">
+        <v>0.09875690930056108</v>
+      </c>
+      <c r="D78">
+        <v>0.08201649252766381</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.0280775237203285</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03932140323889902</v>
+      </c>
+      <c r="C79">
+        <v>0.1573895049817433</v>
+      </c>
+      <c r="D79">
+        <v>0.02960496582976107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006354660372404773</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009420491560657305</v>
+      </c>
+      <c r="C80">
+        <v>0.04004574446285585</v>
+      </c>
+      <c r="D80">
+        <v>0.03108003597536776</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.005602531297640746</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01629905295113088</v>
+      </c>
+      <c r="C81">
+        <v>0.1308240443671122</v>
+      </c>
+      <c r="D81">
+        <v>0.03769609156748475</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.008514406809127857</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01984611554361784</v>
+      </c>
+      <c r="C82">
+        <v>0.1366457755278376</v>
+      </c>
+      <c r="D82">
+        <v>0.03702898323328774</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003778128528082484</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01226091893661699</v>
+      </c>
+      <c r="C83">
+        <v>0.06470426361924027</v>
+      </c>
+      <c r="D83">
+        <v>0.04495005847456758</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004162529651135255</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006397305745413293</v>
+      </c>
+      <c r="C84">
+        <v>0.03494645285717562</v>
+      </c>
+      <c r="D84">
+        <v>0.0112274512789972</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01952956033112228</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02922736128138672</v>
+      </c>
+      <c r="C85">
+        <v>0.123705107449249</v>
+      </c>
+      <c r="D85">
+        <v>0.0393948077742121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002211070365433801</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003898474085997485</v>
+      </c>
+      <c r="C86">
+        <v>0.05078967132387923</v>
+      </c>
+      <c r="D86">
+        <v>0.02604746775731392</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.001812248176679331</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01164380028261782</v>
+      </c>
+      <c r="C87">
+        <v>0.1287140419254609</v>
+      </c>
+      <c r="D87">
+        <v>0.07246240665598691</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.008316844059957369</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002901245089299062</v>
+      </c>
+      <c r="C88">
+        <v>0.06355174338998566</v>
+      </c>
+      <c r="D88">
+        <v>0.02885818703853067</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01144903781814643</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.003186143898619338</v>
+      </c>
+      <c r="C89">
+        <v>0.134010280801749</v>
+      </c>
+      <c r="D89">
+        <v>-0.3169365083530974</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002150531307624122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.00543473748418357</v>
+      </c>
+      <c r="C90">
+        <v>0.1154353759419574</v>
+      </c>
+      <c r="D90">
+        <v>-0.3142965495533331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002916434223581791</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01127360074304273</v>
+      </c>
+      <c r="C91">
+        <v>0.09900313518257349</v>
+      </c>
+      <c r="D91">
+        <v>0.02946074901706964</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005762799408311905</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0004678203031731531</v>
+      </c>
+      <c r="C92">
+        <v>0.1294355690465816</v>
+      </c>
+      <c r="D92">
+        <v>-0.326419532170745</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001937475534547611</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003030259069627265</v>
+      </c>
+      <c r="C93">
+        <v>0.1037019076621853</v>
+      </c>
+      <c r="D93">
+        <v>-0.3011691244611144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01059219999001722</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02225742963793457</v>
+      </c>
+      <c r="C94">
+        <v>0.1400345000772387</v>
+      </c>
+      <c r="D94">
+        <v>0.05453885654804435</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006881391055972353</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01596963506500826</v>
+      </c>
+      <c r="C95">
+        <v>0.1206245815031203</v>
+      </c>
+      <c r="D95">
+        <v>0.06575182271352698</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01743845714825363</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03747237070814942</v>
+      </c>
+      <c r="C97">
+        <v>0.2253491258778059</v>
+      </c>
+      <c r="D97">
+        <v>-0.002358025358293671</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01278301812256075</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03941283060802343</v>
+      </c>
+      <c r="C98">
+        <v>0.2616213961952483</v>
+      </c>
+      <c r="D98">
+        <v>0.02904775857023547</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9864115289798217</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9806187684326516</v>
+      </c>
+      <c r="C99">
+        <v>-0.1212277955525908</v>
+      </c>
+      <c r="D99">
+        <v>-0.02473766113286402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0004965444172772492</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003201429117497514</v>
+      </c>
+      <c r="C101">
+        <v>0.04761251552557923</v>
+      </c>
+      <c r="D101">
+        <v>0.01131709874005564</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
